--- a/S32K3/S32K3xx_DMAMUX_map.xlsx
+++ b/S32K3/S32K3xx_DMAMUX_map.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\ccwork\AUTO\012_systems_table_generator\SW\python\table_generation\out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48AA4-DB53-4958-984E-D389B9FD1111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1522" yWindow="1522" windowWidth="36027" windowHeight="16831" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DMAMUX0" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DMAMUX0!$D$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DMAMUX1!$D$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -420,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +513,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -553,7 +567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,9 +599,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,6 +651,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -794,39 +844,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="18" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12" customHeight="1">
+    <row r="1" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -876,7 +912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1">
+    <row r="2" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +934,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -954,7 +990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1">
+    <row r="4" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1008,7 +1044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1">
+    <row r="5" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1064,7 +1100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1">
+    <row r="6" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1120,7 +1156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1">
+    <row r="7" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1176,7 +1212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" customHeight="1">
+    <row r="8" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1232,7 +1268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="12" customHeight="1">
+    <row r="9" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1288,7 +1324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1">
+    <row r="10" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1344,7 +1380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
+    <row r="11" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1400,7 +1436,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1">
+    <row r="12" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1456,7 +1492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12" customHeight="1">
+    <row r="13" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1">
+    <row r="14" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1568,7 +1604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12" customHeight="1">
+    <row r="15" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1624,7 +1660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12" customHeight="1">
+    <row r="16" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1680,7 +1716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12" customHeight="1">
+    <row r="17" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1736,7 +1772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12" customHeight="1">
+    <row r="18" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1792,7 +1828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="12" customHeight="1">
+    <row r="19" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1848,7 +1884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="12" customHeight="1">
+    <row r="20" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1904,7 +1940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="12" customHeight="1">
+    <row r="21" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1960,7 +1996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="12" customHeight="1">
+    <row r="22" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2016,7 +2052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="12" customHeight="1">
+    <row r="23" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2072,7 +2108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="12" customHeight="1">
+    <row r="24" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2128,7 +2164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="12" customHeight="1">
+    <row r="25" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2184,7 +2220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="12" customHeight="1">
+    <row r="26" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2240,7 +2276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="12" customHeight="1">
+    <row r="27" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2296,7 +2332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12" customHeight="1">
+    <row r="28" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2352,7 +2388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12" customHeight="1">
+    <row r="29" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2408,7 +2444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="12" customHeight="1">
+    <row r="30" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2464,7 +2500,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="12" customHeight="1">
+    <row r="31" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2520,7 +2556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="12" customHeight="1">
+    <row r="32" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2574,7 +2610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="12" customHeight="1">
+    <row r="33" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2630,7 +2666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="12" customHeight="1">
+    <row r="34" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2686,7 +2722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="12" customHeight="1">
+    <row r="35" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2742,7 +2778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="12" customHeight="1">
+    <row r="36" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2798,7 +2834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="12" customHeight="1">
+    <row r="37" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2854,7 +2890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="12" customHeight="1">
+    <row r="38" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -2910,7 +2946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="12" customHeight="1">
+    <row r="39" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>34</v>
       </c>
@@ -2966,7 +3002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="12" customHeight="1">
+    <row r="40" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -3022,7 +3058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="12" customHeight="1">
+    <row r="41" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -3078,7 +3114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="12" customHeight="1">
+    <row r="42" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -3134,7 +3170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="12" customHeight="1">
+    <row r="43" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -3190,7 +3226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="12" customHeight="1">
+    <row r="44" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -3246,7 +3282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="12" customHeight="1">
+    <row r="45" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>37</v>
       </c>
@@ -3302,7 +3338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="12" customHeight="1">
+    <row r="46" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>37</v>
       </c>
@@ -3358,7 +3394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="12" customHeight="1">
+    <row r="47" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38</v>
       </c>
@@ -3414,7 +3450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1">
+    <row r="48" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>38</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="12" customHeight="1">
+    <row r="49" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>39</v>
       </c>
@@ -3526,7 +3562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="12" customHeight="1">
+    <row r="50" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>39</v>
       </c>
@@ -3582,7 +3618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="12" customHeight="1">
+    <row r="51" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40</v>
       </c>
@@ -3638,7 +3674,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="12" customHeight="1">
+    <row r="52" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40</v>
       </c>
@@ -3694,7 +3730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="12" customHeight="1">
+    <row r="53" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41</v>
       </c>
@@ -3750,7 +3786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="12" customHeight="1">
+    <row r="54" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41</v>
       </c>
@@ -3806,7 +3842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="12" customHeight="1">
+    <row r="55" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42</v>
       </c>
@@ -3862,7 +3898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="12" customHeight="1">
+    <row r="56" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42</v>
       </c>
@@ -3918,7 +3954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="12" customHeight="1">
+    <row r="57" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43</v>
       </c>
@@ -3974,7 +4010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="12" customHeight="1">
+    <row r="58" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44</v>
       </c>
@@ -4030,7 +4066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="12" customHeight="1">
+    <row r="59" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45</v>
       </c>
@@ -4086,7 +4122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="12" customHeight="1">
+    <row r="60" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>46</v>
       </c>
@@ -4142,7 +4178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="12" customHeight="1">
+    <row r="61" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>47</v>
       </c>
@@ -4198,7 +4234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="12" customHeight="1">
+    <row r="62" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>48</v>
       </c>
@@ -4254,7 +4290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="12" customHeight="1">
+    <row r="63" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>49</v>
       </c>
@@ -4310,7 +4346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="12" customHeight="1">
+    <row r="64" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>50</v>
       </c>
@@ -4366,7 +4402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1">
+    <row r="65" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>51</v>
       </c>
@@ -4422,7 +4458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1">
+    <row r="66" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>52</v>
       </c>
@@ -4478,7 +4514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1">
+    <row r="67" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>53</v>
       </c>
@@ -4534,7 +4570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="12" customHeight="1">
+    <row r="68" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>54</v>
       </c>
@@ -4590,7 +4626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="12" customHeight="1">
+    <row r="69" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>55</v>
       </c>
@@ -4646,7 +4682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1">
+    <row r="70" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>56</v>
       </c>
@@ -4702,7 +4738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="12" customHeight="1">
+    <row r="71" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>57</v>
       </c>
@@ -4758,7 +4794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1">
+    <row r="72" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>58</v>
       </c>
@@ -4814,7 +4850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1">
+    <row r="73" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>59</v>
       </c>
@@ -4870,7 +4906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1">
+    <row r="74" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>60</v>
       </c>
@@ -4926,7 +4962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1">
+    <row r="75" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>61</v>
       </c>
@@ -4982,7 +5018,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1">
+    <row r="76" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>62</v>
       </c>
@@ -5036,7 +5072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="12" customHeight="1">
+    <row r="77" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>63</v>
       </c>
@@ -5091,45 +5127,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:Q1"/>
+  <autoFilter ref="D1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="18" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" ht="44.15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5185,7 +5207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1">
+    <row r="2" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5239,7 +5261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1">
+    <row r="3" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5295,7 +5317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1">
+    <row r="4" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5351,7 +5373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1">
+    <row r="5" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5407,7 +5429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1">
+    <row r="6" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5463,7 +5485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1">
+    <row r="7" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5519,7 +5541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" customHeight="1">
+    <row r="8" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5575,7 +5597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="12" customHeight="1">
+    <row r="9" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5631,7 +5653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1">
+    <row r="10" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5687,7 +5709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
+    <row r="11" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5743,7 +5765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1">
+    <row r="12" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5799,7 +5821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="12" customHeight="1">
+    <row r="13" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5855,7 +5877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1">
+    <row r="14" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5911,7 +5933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="12" customHeight="1">
+    <row r="15" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5967,7 +5989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="12" customHeight="1">
+    <row r="16" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6023,7 +6045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="12" customHeight="1">
+    <row r="17" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6079,7 +6101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="12" customHeight="1">
+    <row r="18" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6135,7 +6157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="12" customHeight="1">
+    <row r="19" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6191,7 +6213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="12" customHeight="1">
+    <row r="20" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6247,7 +6269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="12" customHeight="1">
+    <row r="21" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6303,7 +6325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="12" customHeight="1">
+    <row r="22" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6359,7 +6381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="12" customHeight="1">
+    <row r="23" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6415,7 +6437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="12" customHeight="1">
+    <row r="24" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6471,7 +6493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="12" customHeight="1">
+    <row r="25" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6527,7 +6549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="12" customHeight="1">
+    <row r="26" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6583,7 +6605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="12" customHeight="1">
+    <row r="27" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6639,7 +6661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12" customHeight="1">
+    <row r="28" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6695,7 +6717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12" customHeight="1">
+    <row r="29" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6751,7 +6773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="12" customHeight="1">
+    <row r="30" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -6807,7 +6829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="12" customHeight="1">
+    <row r="31" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -6863,7 +6885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="12" customHeight="1">
+    <row r="32" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -6919,7 +6941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="12" customHeight="1">
+    <row r="33" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -6975,7 +6997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="12" customHeight="1">
+    <row r="34" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -7031,7 +7053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="12" customHeight="1">
+    <row r="35" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -7087,7 +7109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="12" customHeight="1">
+    <row r="36" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -7143,7 +7165,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="12" customHeight="1">
+    <row r="37" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -7199,7 +7221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="12" customHeight="1">
+    <row r="38" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -7255,7 +7277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="12" customHeight="1">
+    <row r="39" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>34</v>
       </c>
@@ -7311,7 +7333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="12" customHeight="1">
+    <row r="40" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -7367,7 +7389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="12" customHeight="1">
+    <row r="41" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -7423,7 +7445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="12" customHeight="1">
+    <row r="42" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -7479,7 +7501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="12" customHeight="1">
+    <row r="43" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -7535,7 +7557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="12" customHeight="1">
+    <row r="44" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -7591,7 +7613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="12" customHeight="1">
+    <row r="45" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>37</v>
       </c>
@@ -7647,7 +7669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="12" customHeight="1">
+    <row r="46" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>37</v>
       </c>
@@ -7703,7 +7725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="12" customHeight="1">
+    <row r="47" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38</v>
       </c>
@@ -7759,7 +7781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1">
+    <row r="48" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>38</v>
       </c>
@@ -7815,7 +7837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="12" customHeight="1">
+    <row r="49" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>39</v>
       </c>
@@ -7871,7 +7893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="12" customHeight="1">
+    <row r="50" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>39</v>
       </c>
@@ -7927,7 +7949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="12" customHeight="1">
+    <row r="51" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40</v>
       </c>
@@ -7983,7 +8005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="12" customHeight="1">
+    <row r="52" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40</v>
       </c>
@@ -8039,7 +8061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="12" customHeight="1">
+    <row r="53" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41</v>
       </c>
@@ -8095,7 +8117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="12" customHeight="1">
+    <row r="54" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41</v>
       </c>
@@ -8151,7 +8173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="12" customHeight="1">
+    <row r="55" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42</v>
       </c>
@@ -8207,7 +8229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="12" customHeight="1">
+    <row r="56" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42</v>
       </c>
@@ -8263,7 +8285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="12" customHeight="1">
+    <row r="57" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43</v>
       </c>
@@ -8319,7 +8341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="12" customHeight="1">
+    <row r="58" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43</v>
       </c>
@@ -8375,7 +8397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="12" customHeight="1">
+    <row r="59" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44</v>
       </c>
@@ -8431,7 +8453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="12" customHeight="1">
+    <row r="60" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44</v>
       </c>
@@ -8487,7 +8509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="12" customHeight="1">
+    <row r="61" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45</v>
       </c>
@@ -8543,7 +8565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="12" customHeight="1">
+    <row r="62" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45</v>
       </c>
@@ -8599,7 +8621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="12" customHeight="1">
+    <row r="63" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>46</v>
       </c>
@@ -8655,7 +8677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="12" customHeight="1">
+    <row r="64" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>46</v>
       </c>
@@ -8711,7 +8733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1">
+    <row r="65" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>47</v>
       </c>
@@ -8767,7 +8789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1">
+    <row r="66" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>47</v>
       </c>
@@ -8823,7 +8845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1">
+    <row r="67" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>48</v>
       </c>
@@ -8879,7 +8901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="12" customHeight="1">
+    <row r="68" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>48</v>
       </c>
@@ -8935,7 +8957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="12" customHeight="1">
+    <row r="69" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>49</v>
       </c>
@@ -8991,7 +9013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1">
+    <row r="70" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>49</v>
       </c>
@@ -9047,7 +9069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="12" customHeight="1">
+    <row r="71" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>50</v>
       </c>
@@ -9103,7 +9125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1">
+    <row r="72" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>50</v>
       </c>
@@ -9159,7 +9181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1">
+    <row r="73" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>51</v>
       </c>
@@ -9215,7 +9237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1">
+    <row r="74" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>51</v>
       </c>
@@ -9271,7 +9293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1">
+    <row r="75" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>52</v>
       </c>
@@ -9327,7 +9349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1">
+    <row r="76" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>53</v>
       </c>
@@ -9383,7 +9405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="12" customHeight="1">
+    <row r="77" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>54</v>
       </c>
@@ -9439,7 +9461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1">
+    <row r="78" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>55</v>
       </c>
@@ -9495,7 +9517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="12" customHeight="1">
+    <row r="79" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>56</v>
       </c>
@@ -9551,7 +9573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="12" customHeight="1">
+    <row r="80" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>57</v>
       </c>
@@ -9607,7 +9629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="12" customHeight="1">
+    <row r="81" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>58</v>
       </c>
@@ -9663,7 +9685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="12" customHeight="1">
+    <row r="82" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>59</v>
       </c>
@@ -9719,7 +9741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="12" customHeight="1">
+    <row r="83" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>60</v>
       </c>
@@ -9775,7 +9797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="12" customHeight="1">
+    <row r="84" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>61</v>
       </c>
@@ -9831,7 +9853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="12" customHeight="1">
+    <row r="85" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>62</v>
       </c>
@@ -9885,7 +9907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="12" customHeight="1">
+    <row r="86" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>63</v>
       </c>
@@ -9940,7 +9962,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:Q1"/>
+  <autoFilter ref="D1:Q1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/S32K3/S32K3xx_DMAMUX_map.xlsx
+++ b/S32K3/S32K3xx_DMAMUX_map.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\ccwork\AUTO\012_systems_table_generator\SW\python\table_generation\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf93503\Documents\S32K3\iomux\April2024\READY_TO_SEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48AA4-DB53-4958-984E-D389B9FD1111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{707740A8-91A8-4BB9-A75A-61ECE180969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1522" yWindow="1522" windowWidth="36027" windowHeight="16831" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DMAMUX0" sheetId="1" r:id="rId1"/>
     <sheet name="DMAMUX1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DMAMUX0!$D$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DMAMUX1!$D$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DMAMUX0!$A$1:$S$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DMAMUX1!$A$1:$S$88</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="138">
   <si>
     <t>Device</t>
   </si>
@@ -421,13 +421,34 @@
   </si>
   <si>
     <t>FlexIO Timer7 DMA request</t>
+  </si>
+  <si>
+    <t>S32K389</t>
+  </si>
+  <si>
+    <t>FLEXCAN8</t>
+  </si>
+  <si>
+    <t>FLEXCAN9</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>FLEXCAN10</t>
+  </si>
+  <si>
+    <t>FLEXCAN11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +469,36 @@
       <name val="Courier New"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +508,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,10 +542,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -507,9 +563,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Peripheral Memory Map" xfId="1" xr:uid="{BA935B85-54D6-459A-A633-85E52838E85D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,9 +604,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -565,9 +644,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,26 +679,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,26 +714,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -845,24 +890,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="18" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="19" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -911,8 +956,11 @@
       <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -933,8 +981,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="44.15" x14ac:dyDescent="0.25">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -989,8 +1038,11 @@
       <c r="R3" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1043,8 +1095,11 @@
       <c r="R4" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1099,8 +1154,11 @@
       <c r="R5" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1155,8 +1213,11 @@
       <c r="R6" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1211,8 +1272,11 @@
       <c r="R7" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1267,8 +1331,11 @@
       <c r="R8" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1323,8 +1390,11 @@
       <c r="R9" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1379,8 +1449,11 @@
       <c r="R10" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1435,8 +1508,11 @@
       <c r="R11" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1491,8 +1567,11 @@
       <c r="R12" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1547,8 +1626,11 @@
       <c r="R13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1603,8 +1685,11 @@
       <c r="R14" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1659,8 +1744,11 @@
       <c r="R15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1715,8 +1803,11 @@
       <c r="R16" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1771,8 +1862,11 @@
       <c r="R17" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1827,8 +1921,11 @@
       <c r="R18" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1883,8 +1980,11 @@
       <c r="R19" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1939,8 +2039,11 @@
       <c r="R20" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1995,8 +2098,11 @@
       <c r="R21" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2051,8 +2157,11 @@
       <c r="R22" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2107,8 +2216,11 @@
       <c r="R23" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2163,8 +2275,11 @@
       <c r="R24" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2219,8 +2334,11 @@
       <c r="R25" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2275,8 +2393,11 @@
       <c r="R26" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2331,8 +2452,11 @@
       <c r="R27" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2387,8 +2511,11 @@
       <c r="R28" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2443,8 +2570,11 @@
       <c r="R29" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2499,8 +2629,11 @@
       <c r="R30" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2555,62 +2688,70 @@
       <c r="R31" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="S31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="9" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2"/>
+      <c r="B32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2665,8 +2806,11 @@
       <c r="R33" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2721,8 +2865,11 @@
       <c r="R34" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2777,8 +2924,11 @@
       <c r="R35" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2833,8 +2983,11 @@
       <c r="R36" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2889,8 +3042,11 @@
       <c r="R37" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -2945,8 +3101,11 @@
       <c r="R38" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>34</v>
       </c>
@@ -3001,8 +3160,11 @@
       <c r="R39" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -3057,8 +3219,11 @@
       <c r="R40" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -3113,8 +3278,11 @@
       <c r="R41" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -3169,8 +3337,11 @@
       <c r="R42" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -3225,8 +3396,11 @@
       <c r="R43" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -3281,8 +3455,11 @@
       <c r="R44" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>37</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="R45" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>37</v>
       </c>
@@ -3393,8 +3573,11 @@
       <c r="R46" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>38</v>
       </c>
@@ -3449,8 +3632,11 @@
       <c r="R47" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>38</v>
       </c>
@@ -3505,8 +3691,11 @@
       <c r="R48" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>39</v>
       </c>
@@ -3561,8 +3750,11 @@
       <c r="R49" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>39</v>
       </c>
@@ -3617,8 +3809,11 @@
       <c r="R50" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S50" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>40</v>
       </c>
@@ -3673,8 +3868,11 @@
       <c r="R51" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>40</v>
       </c>
@@ -3729,8 +3927,11 @@
       <c r="R52" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>41</v>
       </c>
@@ -3785,8 +3986,11 @@
       <c r="R53" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>41</v>
       </c>
@@ -3841,8 +4045,11 @@
       <c r="R54" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42</v>
       </c>
@@ -3897,8 +4104,11 @@
       <c r="R55" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42</v>
       </c>
@@ -3953,8 +4163,11 @@
       <c r="R56" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S56" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43</v>
       </c>
@@ -4009,8 +4222,11 @@
       <c r="R57" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44</v>
       </c>
@@ -4065,8 +4281,11 @@
       <c r="R58" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45</v>
       </c>
@@ -4121,8 +4340,11 @@
       <c r="R59" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>46</v>
       </c>
@@ -4177,8 +4399,11 @@
       <c r="R60" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S60" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>47</v>
       </c>
@@ -4233,8 +4458,11 @@
       <c r="R61" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>48</v>
       </c>
@@ -4289,8 +4517,11 @@
       <c r="R62" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S62" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>49</v>
       </c>
@@ -4345,8 +4576,11 @@
       <c r="R63" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S63" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>50</v>
       </c>
@@ -4401,8 +4635,11 @@
       <c r="R64" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S64" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>51</v>
       </c>
@@ -4457,8 +4694,11 @@
       <c r="R65" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>52</v>
       </c>
@@ -4513,8 +4753,11 @@
       <c r="R66" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>53</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="R67" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S67" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>54</v>
       </c>
@@ -4625,8 +4871,11 @@
       <c r="R68" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S68" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>55</v>
       </c>
@@ -4681,8 +4930,11 @@
       <c r="R69" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S69" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>56</v>
       </c>
@@ -4737,8 +4989,11 @@
       <c r="R70" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S70" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>57</v>
       </c>
@@ -4793,69 +5048,75 @@
       <c r="R71" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="S71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>57</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>58</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>59</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -4905,34 +5166,37 @@
       <c r="R73" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>73</v>
@@ -4961,120 +5225,131 @@
       <c r="R74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
+        <v>60</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>61</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="D76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>62</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>63</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="2" t="s">
@@ -5125,33 +5400,100 @@
       <c r="R77" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="S77" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>63</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:Q1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B32:C32 B72:C72" xr:uid="{9C9CCF5B-BD75-4CCC-A43B-7625A057336F}">
+      <formula1>INDIRECT(CONCATENATE(#REF!,"_DMA"))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="18" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="44.15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5206,8 +5548,11 @@
       <c r="R1" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5260,8 +5605,11 @@
       <c r="R2" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5316,8 +5664,11 @@
       <c r="R3" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5372,8 +5723,11 @@
       <c r="R4" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5428,8 +5782,11 @@
       <c r="R5" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5484,8 +5841,11 @@
       <c r="R6" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5540,8 +5900,11 @@
       <c r="R7" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5596,8 +5959,11 @@
       <c r="R8" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5652,8 +6018,11 @@
       <c r="R9" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5708,8 +6077,11 @@
       <c r="R10" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5764,8 +6136,11 @@
       <c r="R11" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5820,8 +6195,11 @@
       <c r="R12" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5876,8 +6254,11 @@
       <c r="R13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5932,8 +6313,11 @@
       <c r="R14" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5988,8 +6372,11 @@
       <c r="R15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6044,8 +6431,11 @@
       <c r="R16" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6100,8 +6490,11 @@
       <c r="R17" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6156,8 +6549,11 @@
       <c r="R18" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6212,8 +6608,11 @@
       <c r="R19" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6268,8 +6667,11 @@
       <c r="R20" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6324,8 +6726,11 @@
       <c r="R21" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6380,8 +6785,11 @@
       <c r="R22" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6436,8 +6844,11 @@
       <c r="R23" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6492,8 +6903,11 @@
       <c r="R24" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6548,8 +6962,11 @@
       <c r="R25" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6604,8 +7021,11 @@
       <c r="R26" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6660,8 +7080,11 @@
       <c r="R27" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6716,8 +7139,11 @@
       <c r="R28" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6772,8 +7198,11 @@
       <c r="R29" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S29" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -6828,8 +7257,11 @@
       <c r="R30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S30" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -6884,8 +7316,11 @@
       <c r="R31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -6940,237 +7375,252 @@
       <c r="R32" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="S32" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>33</v>
@@ -7182,7 +7632,7 @@
         <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>11</v>
@@ -7194,13 +7644,13 @@
         <v>11</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>73</v>
@@ -7220,13 +7670,16 @@
       <c r="R37" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
@@ -7238,7 +7691,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>11</v>
@@ -7250,13 +7703,13 @@
         <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>73</v>
@@ -7276,128 +7729,137 @@
       <c r="R38" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>34</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>34</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>73</v>
@@ -7444,16 +7906,19 @@
       <c r="R41" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>73</v>
@@ -7500,16 +7965,19 @@
       <c r="R42" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>73</v>
@@ -7556,16 +8024,19 @@
       <c r="R43" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>73</v>
@@ -7612,16 +8083,19 @@
       <c r="R44" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>73</v>
@@ -7668,184 +8142,196 @@
       <c r="R45" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>38</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>73</v>
@@ -7892,184 +8378,196 @@
       <c r="R49" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="D51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>39</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>40</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>40</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>41</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>73</v>
@@ -8116,184 +8614,196 @@
       <c r="R53" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S53" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>41</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>41</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>42</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>42</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -8340,184 +8850,196 @@
       <c r="R57" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>44</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>44</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -8564,184 +9086,196 @@
       <c r="R61" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S61" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>46</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>47</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -8788,184 +9322,196 @@
       <c r="R65" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>47</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>48</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>48</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>49</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -9012,184 +9558,196 @@
       <c r="R69" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S69" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>49</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>49</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S72" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>50</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>50</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>51</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>73</v>
@@ -9236,16 +9794,19 @@
       <c r="R73" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S73" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>73</v>
@@ -9292,34 +9853,37 @@
       <c r="R74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S74" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>73</v>
@@ -9348,69 +9912,75 @@
       <c r="R75" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S75" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>52</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>54</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>62</v>
@@ -9460,13 +10030,16 @@
       <c r="R77" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S77" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>60</v>
@@ -9516,453 +10089,603 @@
       <c r="R78" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S78" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
+        <v>54</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S79" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>55</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>56</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>57</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>58</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S83" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>59</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S84" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>60</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S85" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>61</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S86" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>62</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="2" t="s">
+      <c r="B87" s="1"/>
+      <c r="C87" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="D87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S87" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="12.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>63</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="2" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R86" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S88" s="12" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:Q1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:S88" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B33:C34" xr:uid="{33EE0A04-B525-47DF-944D-F8D7BCE72DEF}">
+      <formula1>INDIRECT(CONCATENATE(#REF!,"_DMA"))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>